--- a/data_final/consolidated/dictionaries/S_Latest_Dict.xlsx
+++ b/data_final/consolidated/dictionaries/S_Latest_Dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wimer\github\opioid-policy-scan\data_final\consolidated\dictionaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67883537-FCE8-4811-BF75-D0A235309FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF02A2B2-C4B4-4D7E-9F12-5E7ABC125DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="14595" xr2:uid="{8E8ECB20-C253-4C6B-B47F-97465896DC83}"/>
+    <workbookView xWindow="22943" yWindow="-14655" windowWidth="38595" windowHeight="21795" xr2:uid="{8E8ECB20-C253-4C6B-B47F-97465896DC83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="588">
   <si>
     <t>G_STATEFP</t>
   </si>
@@ -1698,6 +1698,108 @@
   </si>
   <si>
     <t>Overdose mortality rate in 2020</t>
+  </si>
+  <si>
+    <t>OEPS V1 Table</t>
+  </si>
+  <si>
+    <t>DS01</t>
+  </si>
+  <si>
+    <t>DS04</t>
+  </si>
+  <si>
+    <t>DS05</t>
+  </si>
+  <si>
+    <t>DS06</t>
+  </si>
+  <si>
+    <t>EC01</t>
+  </si>
+  <si>
+    <t>EC02</t>
+  </si>
+  <si>
+    <t>EC03</t>
+  </si>
+  <si>
+    <t>EC04</t>
+  </si>
+  <si>
+    <t>EC05</t>
+  </si>
+  <si>
+    <t>BE01</t>
+  </si>
+  <si>
+    <t>BE03</t>
+  </si>
+  <si>
+    <t>BE05</t>
+  </si>
+  <si>
+    <t>BE06</t>
+  </si>
+  <si>
+    <t>BE07</t>
+  </si>
+  <si>
+    <t>Access01</t>
+  </si>
+  <si>
+    <t>Access02</t>
+  </si>
+  <si>
+    <t>Access03</t>
+  </si>
+  <si>
+    <t>Access04</t>
+  </si>
+  <si>
+    <t>Access05</t>
+  </si>
+  <si>
+    <t>Access06</t>
+  </si>
+  <si>
+    <t>Access07</t>
+  </si>
+  <si>
+    <t>Health03</t>
+  </si>
+  <si>
+    <t>Health01</t>
+  </si>
+  <si>
+    <t>Health02</t>
+  </si>
+  <si>
+    <t>Health04</t>
+  </si>
+  <si>
+    <t>PS03</t>
+  </si>
+  <si>
+    <t>PS04</t>
+  </si>
+  <si>
+    <t>PS05</t>
+  </si>
+  <si>
+    <t>PS06</t>
+  </si>
+  <si>
+    <t>PS07</t>
+  </si>
+  <si>
+    <t>PS08</t>
+  </si>
+  <si>
+    <t>PS09</t>
+  </si>
+  <si>
+    <t>PS11</t>
   </si>
 </sst>
 </file>
@@ -2074,10 +2176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A1ADFE-BBD7-4B6E-9B58-C407313C040C}">
-  <dimension ref="A1:J230"/>
+  <dimension ref="A1:K230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2087,13 +2189,13 @@
     <col min="4" max="4" width="9.06640625" style="1"/>
     <col min="5" max="5" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.1328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.06640625" style="1"/>
-    <col min="8" max="8" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.06640625" style="1"/>
+    <col min="7" max="8" width="9.06640625" style="1"/>
+    <col min="9" max="9" width="9.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>205</v>
       </c>
@@ -2113,19 +2215,22 @@
         <v>209</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>214</v>
       </c>
@@ -2144,18 +2249,19 @@
       <c r="F2" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J2" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>214</v>
       </c>
@@ -2174,18 +2280,19 @@
       <c r="F3" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>53</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J3" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>214</v>
       </c>
@@ -2204,18 +2311,19 @@
       <c r="F4" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J4" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>218</v>
       </c>
@@ -2235,17 +2343,20 @@
         <v>221</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H5" s="2">
+        <v>555</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I5" s="2">
         <v>7294336</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J5" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>218</v>
       </c>
@@ -2264,18 +2375,21 @@
       <c r="F6" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G6" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I6" s="2">
         <v>7151776</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J6" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>218</v>
       </c>
@@ -2294,18 +2408,21 @@
       <c r="F7" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="G7" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I7" s="2">
         <v>537713</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J7" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>218</v>
       </c>
@@ -2324,18 +2441,21 @@
       <c r="F8" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="G8" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I8" s="2">
         <v>3064381</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J8" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>218</v>
       </c>
@@ -2355,17 +2475,20 @@
         <v>225</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H9" s="2">
+        <v>559</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I9" s="2">
         <v>3513856</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J9" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>218</v>
       </c>
@@ -2385,17 +2508,20 @@
         <v>221</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H10" s="2">
+        <v>555</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I10" s="2">
         <v>76.03</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J10" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>218</v>
       </c>
@@ -2415,17 +2541,20 @@
         <v>221</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H11" s="2">
+        <v>555</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I11" s="2">
         <v>3.7</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J11" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>218</v>
       </c>
@@ -2445,17 +2574,20 @@
         <v>221</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H12" s="2">
+        <v>555</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I12" s="2">
         <v>1.3</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J12" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>218</v>
       </c>
@@ -2475,17 +2607,20 @@
         <v>221</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H13" s="2">
+        <v>555</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I13" s="2">
         <v>8.33</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J13" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
         <v>218</v>
       </c>
@@ -2505,17 +2640,20 @@
         <v>221</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H14" s="2">
+        <v>555</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I14" s="2">
         <v>0.66</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J14" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>218</v>
       </c>
@@ -2535,17 +2673,20 @@
         <v>221</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H15" s="2">
+        <v>555</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I15" s="2">
         <v>9.98</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J15" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>218</v>
       </c>
@@ -2565,17 +2706,20 @@
         <v>221</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H16" s="2">
+        <v>555</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I16" s="2">
         <v>12.5</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J16" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>218</v>
       </c>
@@ -2594,18 +2738,19 @@
       <c r="F17" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I17" s="2">
         <v>78</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J17" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>218</v>
       </c>
@@ -2625,17 +2770,20 @@
         <v>221</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H18" s="2">
+        <v>555</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I18" s="2">
         <v>12.74</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J18" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>218</v>
       </c>
@@ -2655,17 +2803,20 @@
         <v>221</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H19" s="2">
+        <v>555</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I19" s="2">
         <v>59.43</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J19" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>218</v>
       </c>
@@ -2685,17 +2836,20 @@
         <v>221</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H20" s="2">
+        <v>555</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I20" s="2">
         <v>14.72</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J20" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>218</v>
       </c>
@@ -2715,17 +2869,20 @@
         <v>221</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H21" s="2">
+        <v>555</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I21" s="2">
         <v>453008</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J21" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>218</v>
       </c>
@@ -2745,17 +2902,20 @@
         <v>221</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H22" s="2">
+        <v>555</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I22" s="2">
         <v>909873</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J22" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>218</v>
       </c>
@@ -2775,17 +2935,20 @@
         <v>221</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H23" s="2">
+        <v>555</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I23" s="2">
         <v>444352</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J23" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>218</v>
       </c>
@@ -2805,17 +2968,20 @@
         <v>221</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H24" s="2">
+        <v>555</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I24" s="2">
         <v>485160</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J24" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>218</v>
       </c>
@@ -2835,17 +3001,20 @@
         <v>221</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H25" s="2">
+        <v>555</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I25" s="2">
         <v>2972063</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J25" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>218</v>
       </c>
@@ -2865,17 +3034,20 @@
         <v>221</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H26" s="2">
+        <v>555</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I26" s="2">
         <v>467768</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J26" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>218</v>
       </c>
@@ -2895,17 +3067,20 @@
         <v>221</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H27" s="2">
+        <v>555</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I27" s="2">
         <v>476486</v>
       </c>
-      <c r="I27" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J27" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>218</v>
       </c>
@@ -2925,17 +3100,20 @@
         <v>221</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H28" s="2">
+        <v>555</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I28" s="2">
         <v>487173</v>
       </c>
-      <c r="I28" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J28" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>218</v>
       </c>
@@ -2955,17 +3133,20 @@
         <v>221</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H29" s="2">
+        <v>555</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I29" s="2">
         <v>454466</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J29" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>218</v>
       </c>
@@ -2985,17 +3166,20 @@
         <v>221</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H30" s="2">
+        <v>555</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I30" s="2">
         <v>1073499</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J30" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>218</v>
       </c>
@@ -3015,17 +3199,20 @@
         <v>221</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H31" s="2">
+        <v>555</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I31" s="2">
         <v>5661461</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J31" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>218</v>
       </c>
@@ -3045,17 +3232,20 @@
         <v>221</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H32" s="2">
+        <v>555</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I32" s="2">
         <v>4587962</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J32" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>218</v>
       </c>
@@ -3075,17 +3265,20 @@
         <v>221</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H33" s="2">
+        <v>555</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I33" s="2">
         <v>12.7</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J33" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="2" t="s">
         <v>253</v>
       </c>
@@ -3105,17 +3298,20 @@
         <v>221</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H34" s="2">
+        <v>555</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I34" s="2">
         <v>8.89</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J34" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>218</v>
       </c>
@@ -3134,18 +3330,21 @@
       <c r="F35" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H35" s="2">
+      <c r="G35" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I35" s="2">
         <v>9.58</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J35" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>218</v>
       </c>
@@ -3164,18 +3363,21 @@
       <c r="F36" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H36" s="2">
+      <c r="G36" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I36" s="2">
         <v>3.35</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J36" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>218</v>
       </c>
@@ -3194,18 +3396,21 @@
       <c r="F37" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H37" s="2">
+      <c r="G37" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I37" s="2">
         <v>25.61</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J37" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>218</v>
       </c>
@@ -3224,18 +3429,21 @@
       <c r="F38" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H38" s="2">
+      <c r="G38" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I38" s="2">
         <v>38897</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J38" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>218</v>
       </c>
@@ -3254,18 +3462,21 @@
       <c r="F39" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H39" s="2">
+      <c r="G39" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I39" s="2">
         <v>32603</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J39" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>218</v>
       </c>
@@ -3284,18 +3495,21 @@
       <c r="F40" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H40" s="2">
+      <c r="G40" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I40" s="2">
         <v>37597</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J40" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>253</v>
       </c>
@@ -3314,18 +3528,21 @@
       <c r="F41" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H41" s="2">
+      <c r="G41" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I41" s="2">
         <v>5.3</v>
       </c>
-      <c r="I41" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J41" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>253</v>
       </c>
@@ -3344,18 +3561,21 @@
       <c r="F42" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H42" s="2">
+      <c r="G42" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I42" s="2">
         <v>11.5</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J42" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>253</v>
       </c>
@@ -3374,18 +3594,19 @@
       <c r="F43" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H43" s="2">
+      <c r="G43" s="2"/>
+      <c r="H43" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I43" s="2">
         <v>34148</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J43" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>253</v>
       </c>
@@ -3404,25 +3625,30 @@
       <c r="F44" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H44" s="2">
+      <c r="G44" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I44" s="2">
         <v>36888</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J44" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>312</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="D45" s="2">
         <v>2018</v>
       </c>
@@ -3433,24 +3659,29 @@
         <v>313</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H45" s="2">
+        <v>562</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I45" s="2">
         <v>5.53</v>
       </c>
-      <c r="I45" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J45" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>314</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="D46" s="2">
         <v>2018</v>
       </c>
@@ -3461,17 +3692,20 @@
         <v>313</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H46" s="2">
+        <v>562</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I46" s="2">
         <v>48.09</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J46" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" s="2" t="s">
         <v>253</v>
       </c>
@@ -3490,18 +3724,19 @@
       <c r="F47" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H47" s="2">
+      <c r="G47" s="2"/>
+      <c r="H47" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I47" s="2">
         <v>0.46</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J47" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>253</v>
       </c>
@@ -3520,18 +3755,21 @@
       <c r="F48" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H48" s="2">
+      <c r="G48" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I48" s="2">
         <v>8.44</v>
       </c>
-      <c r="I48" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J48" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>253</v>
       </c>
@@ -3550,18 +3788,21 @@
       <c r="F49" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H49" s="2">
+      <c r="G49" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I49" s="2">
         <v>20</v>
       </c>
-      <c r="I49" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J49" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>253</v>
       </c>
@@ -3580,18 +3821,21 @@
       <c r="F50" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H50" s="2">
+      <c r="G50" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I50" s="2">
         <v>13.13</v>
       </c>
-      <c r="I50" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J50" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>253</v>
       </c>
@@ -3610,18 +3854,21 @@
       <c r="F51" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H51" s="2">
+      <c r="G51" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I51" s="2">
         <v>11.7</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J51" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>253</v>
       </c>
@@ -3640,18 +3887,21 @@
       <c r="F52" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H52" s="2">
+      <c r="G52" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I52" s="2">
         <v>1509709</v>
       </c>
-      <c r="I52" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J52" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>253</v>
       </c>
@@ -3670,18 +3920,21 @@
       <c r="F53" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H53" s="2">
+      <c r="G53" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I53" s="2">
         <v>42.96</v>
       </c>
-      <c r="I53" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J53" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>276</v>
       </c>
@@ -3700,18 +3953,21 @@
       <c r="F54" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H54" s="2">
+      <c r="G54" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I54" s="2">
         <v>8.7899999999999991</v>
       </c>
-      <c r="I54" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J54" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>276</v>
       </c>
@@ -3730,18 +3986,21 @@
       <c r="F55" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G55" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H55" s="2">
+      <c r="G55" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I55" s="2">
         <v>8.61</v>
       </c>
-      <c r="I55" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J55" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>276</v>
       </c>
@@ -3760,18 +4019,21 @@
       <c r="F56" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H56" s="2">
+      <c r="G56" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I56" s="2">
         <v>6.39</v>
       </c>
-      <c r="I56" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J56" s="2"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J56" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>276</v>
       </c>
@@ -3790,18 +4052,21 @@
       <c r="F57" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H57" s="2">
+      <c r="G57" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I57" s="2">
         <v>19.989999999999998</v>
       </c>
-      <c r="I57" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J57" s="2"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J57" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>276</v>
       </c>
@@ -3820,18 +4085,21 @@
       <c r="F58" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H58" s="2">
+      <c r="G58" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I58" s="2">
         <v>37.28</v>
       </c>
-      <c r="I58" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J58" s="2"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J58" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" s="2" t="s">
         <v>276</v>
       </c>
@@ -3850,18 +4118,21 @@
       <c r="F59" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H59" s="2">
+      <c r="G59" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I59" s="2">
         <v>46.11</v>
       </c>
-      <c r="I59" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J59" s="2"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J59" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K59" s="2"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>214</v>
       </c>
@@ -3880,18 +4151,21 @@
       <c r="F60" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H60" s="2">
+      <c r="G60" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I60" s="2">
         <v>66452.740000000005</v>
       </c>
-      <c r="I60" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J60" s="2"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J60" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>276</v>
       </c>
@@ -3910,18 +4184,21 @@
       <c r="F61" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H61" s="2">
+      <c r="G61" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I61" s="2">
         <v>421</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J61" s="2"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J61" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>276</v>
       </c>
@@ -3940,18 +4217,21 @@
       <c r="F62" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H62" s="2">
+      <c r="G62" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I62" s="2">
         <v>0.01</v>
       </c>
-      <c r="I62" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J62" s="2"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J62" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" s="2" t="s">
         <v>276</v>
       </c>
@@ -3970,18 +4250,21 @@
       <c r="F63" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H63" s="2">
+      <c r="G63" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I63" s="2">
         <v>0</v>
       </c>
-      <c r="I63" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J63" s="2"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J63" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" s="2" t="s">
         <v>218</v>
       </c>
@@ -4000,18 +4283,21 @@
       <c r="F64" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H64" s="2">
+      <c r="G64" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I64" s="2">
         <v>0.42</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J64" s="2"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J64" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" s="2" t="s">
         <v>218</v>
       </c>
@@ -4030,18 +4316,21 @@
       <c r="F65" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H65" s="2">
+      <c r="G65" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I65" s="2">
         <v>0.71</v>
       </c>
-      <c r="I65" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J65" s="2"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J65" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>218</v>
       </c>
@@ -4060,18 +4349,21 @@
       <c r="F66" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H66" s="2">
+      <c r="G66" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I66" s="2">
         <v>0.03</v>
       </c>
-      <c r="I66" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J66" s="2"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J66" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K66" s="2"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>218</v>
       </c>
@@ -4090,18 +4382,21 @@
       <c r="F67" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H67" s="2">
+      <c r="G67" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I67" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I67" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J67" s="2"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J67" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K67" s="2"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>218</v>
       </c>
@@ -4120,18 +4415,21 @@
       <c r="F68" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H68" s="2">
+      <c r="G68" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I68" s="2">
         <v>0.71</v>
       </c>
-      <c r="I68" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J68" s="2"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J68" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K68" s="2"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>218</v>
       </c>
@@ -4150,18 +4448,21 @@
       <c r="F69" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H69" s="2">
+      <c r="G69" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I69" s="2">
         <v>0.19</v>
       </c>
-      <c r="I69" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J69" s="2"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J69" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K69" s="2"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>218</v>
       </c>
@@ -4180,18 +4481,21 @@
       <c r="F70" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H70" s="2">
+      <c r="G70" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I70" s="2">
         <v>0.33</v>
       </c>
-      <c r="I70" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J70" s="2"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J70" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>218</v>
       </c>
@@ -4210,18 +4514,21 @@
       <c r="F71" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H71" s="2">
+      <c r="G71" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I71" s="2">
         <v>0.75</v>
       </c>
-      <c r="I71" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J71" s="2"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J71" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K71" s="2"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>218</v>
       </c>
@@ -4240,18 +4547,21 @@
       <c r="F72" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G72" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H72" s="2">
+      <c r="G72" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I72" s="2">
         <v>0.04</v>
       </c>
-      <c r="I72" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J72" s="2"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J72" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K72" s="2"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" s="2" t="s">
         <v>276</v>
       </c>
@@ -4271,17 +4581,20 @@
         <v>302</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H73" s="2">
+        <v>567</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I73" s="2">
         <v>0.06</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="J73" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="J73" s="2"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K73" s="2"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" s="2" t="s">
         <v>276</v>
       </c>
@@ -4301,17 +4614,20 @@
         <v>320</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H74" s="2">
+        <v>568</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I74" s="2">
         <v>39296898972.470001</v>
       </c>
-      <c r="I74" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J74" s="2"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J74" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K74" s="2"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" s="2" t="s">
         <v>214</v>
       </c>
@@ -4331,17 +4647,20 @@
         <v>216</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H75" s="2">
+        <v>568</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I75" s="2">
         <v>4486028684.1800003</v>
       </c>
-      <c r="I75" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J75" s="2"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J75" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K75" s="2"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" s="2" t="s">
         <v>276</v>
       </c>
@@ -4361,17 +4680,20 @@
         <v>320</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H76" s="2">
+        <v>568</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I76" s="2">
         <v>8.76</v>
       </c>
-      <c r="I76" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J76" s="2"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J76" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K76" s="2"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" s="2" t="s">
         <v>214</v>
       </c>
@@ -4391,17 +4713,20 @@
         <v>216</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H77" s="2">
+        <v>569</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I77" s="2">
         <v>1458</v>
       </c>
-      <c r="I77" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J77" s="2"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J77" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K77" s="2"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" s="2" t="s">
         <v>276</v>
       </c>
@@ -4420,18 +4745,21 @@
       <c r="F78" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G78" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H78" s="2">
+      <c r="G78" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I78" s="2">
         <v>1400</v>
       </c>
-      <c r="I78" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J78" s="2"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J78" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K78" s="2"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" s="2" t="s">
         <v>276</v>
       </c>
@@ -4450,18 +4778,21 @@
       <c r="F79" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G79" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H79" s="2">
+      <c r="G79" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I79" s="2">
         <v>996</v>
       </c>
-      <c r="I79" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J79" s="2"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J79" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K79" s="2"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>276</v>
       </c>
@@ -4480,18 +4811,21 @@
       <c r="F80" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H80" s="2">
+      <c r="G80" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I80" s="2">
         <v>1323</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J80" s="2"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J80" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K80" s="2"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" s="2" t="s">
         <v>276</v>
       </c>
@@ -4510,18 +4844,21 @@
       <c r="F81" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H81" s="2">
+      <c r="G81" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I81" s="2">
         <v>6.9</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="J81" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="J81" s="2"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K81" s="2"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" s="2" t="s">
         <v>276</v>
       </c>
@@ -4540,18 +4877,21 @@
       <c r="F82" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G82" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H82" s="2">
+      <c r="G82" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I82" s="2">
         <v>29.15</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="J82" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="J82" s="2"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K82" s="2"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" s="2" t="s">
         <v>276</v>
       </c>
@@ -4570,18 +4910,21 @@
       <c r="F83" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H83" s="2">
+      <c r="G83" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I83" s="2">
         <v>11.68</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="J83" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="J83" s="2"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K83" s="2"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" s="2" t="s">
         <v>276</v>
       </c>
@@ -4600,18 +4943,21 @@
       <c r="F84" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G84" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H84" s="2">
+      <c r="G84" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I84" s="2">
         <v>0.96</v>
       </c>
-      <c r="I84" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J84" s="2"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J84" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K84" s="2"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" s="2" t="s">
         <v>276</v>
       </c>
@@ -4630,18 +4976,21 @@
       <c r="F85" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H85" s="2">
+      <c r="G85" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I85" s="2">
         <v>0.68</v>
       </c>
-      <c r="I85" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J85" s="2"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J85" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K85" s="2"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" s="2" t="s">
         <v>276</v>
       </c>
@@ -4660,18 +5009,21 @@
       <c r="F86" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H86" s="2">
+      <c r="G86" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I86" s="2">
         <v>0.91</v>
       </c>
-      <c r="I86" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J86" s="2"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J86" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K86" s="2"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" s="2" t="s">
         <v>276</v>
       </c>
@@ -4690,18 +5042,21 @@
       <c r="F87" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G87" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H87" s="2">
+      <c r="G87" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I87" s="2">
         <v>1359</v>
       </c>
-      <c r="I87" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J87" s="2"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J87" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K87" s="2"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" s="2" t="s">
         <v>276</v>
       </c>
@@ -4720,18 +5075,21 @@
       <c r="F88" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G88" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H88" s="2">
+      <c r="G88" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I88" s="2">
         <v>10.65</v>
       </c>
-      <c r="I88" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J88" s="2"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J88" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K88" s="2"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" s="2" t="s">
         <v>276</v>
       </c>
@@ -4750,18 +5108,21 @@
       <c r="F89" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G89" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H89" s="2">
+      <c r="G89" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I89" s="2">
         <v>0.93</v>
       </c>
-      <c r="I89" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J89" s="2"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J89" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K89" s="2"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" s="2" t="s">
         <v>276</v>
       </c>
@@ -4780,18 +5141,21 @@
       <c r="F90" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="G90" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H90" s="2">
+      <c r="G90" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I90" s="2">
         <v>1334</v>
       </c>
-      <c r="I90" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J90" s="2"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J90" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K90" s="2"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" s="2" t="s">
         <v>276</v>
       </c>
@@ -4810,18 +5174,21 @@
       <c r="F91" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="G91" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H91" s="2">
+      <c r="G91" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I91" s="2">
         <v>13.13</v>
       </c>
-      <c r="I91" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J91" s="2"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J91" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K91" s="2"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" s="2" t="s">
         <v>276</v>
       </c>
@@ -4840,18 +5207,21 @@
       <c r="F92" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="G92" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H92" s="2">
+      <c r="G92" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I92" s="2">
         <v>0.92</v>
       </c>
-      <c r="I92" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J92" s="2"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J92" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K92" s="2"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
         <v>276</v>
       </c>
@@ -4870,18 +5240,21 @@
       <c r="F93" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H93" s="2">
+      <c r="G93" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I93" s="2">
         <v>1406</v>
       </c>
-      <c r="I93" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J93" s="2"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J93" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K93" s="2"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" s="2" t="s">
         <v>276</v>
       </c>
@@ -4900,18 +5273,21 @@
       <c r="F94" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H94" s="2">
+      <c r="G94" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I94" s="2">
         <v>5.97</v>
       </c>
-      <c r="I94" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J94" s="2"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J94" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K94" s="2"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" s="2" t="s">
         <v>276</v>
       </c>
@@ -4930,18 +5306,21 @@
       <c r="F95" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H95" s="2">
+      <c r="G95" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I95" s="2">
         <v>0.96</v>
       </c>
-      <c r="I95" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J95" s="2"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J95" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K95" s="2"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" s="2" t="s">
         <v>276</v>
       </c>
@@ -4960,18 +5339,21 @@
       <c r="F96" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G96" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="2">
+      <c r="G96" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I96" s="2">
         <v>1342</v>
       </c>
-      <c r="I96" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J96" s="2"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J96" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K96" s="2"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" s="2" t="s">
         <v>276</v>
       </c>
@@ -4990,18 +5372,21 @@
       <c r="F97" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H97" s="2">
+      <c r="G97" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I97" s="2">
         <v>11.42</v>
       </c>
-      <c r="I97" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J97" s="2"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J97" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K97" s="2"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" s="2" t="s">
         <v>276</v>
       </c>
@@ -5020,18 +5405,21 @@
       <c r="F98" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H98" s="2">
+      <c r="G98" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I98" s="2">
         <v>0.92</v>
       </c>
-      <c r="I98" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J98" s="2"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J98" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K98" s="2"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99" s="2" t="s">
         <v>276</v>
       </c>
@@ -5050,18 +5438,21 @@
       <c r="F99" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G99" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H99" s="2">
+      <c r="G99" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I99" s="2">
         <v>1364</v>
       </c>
-      <c r="I99" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J99" s="2"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J99" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K99" s="2"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" s="2" t="s">
         <v>276</v>
       </c>
@@ -5080,18 +5471,21 @@
       <c r="F100" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G100" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H100" s="2">
+      <c r="G100" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I100" s="2">
         <v>9.9600000000000009</v>
       </c>
-      <c r="I100" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J100" s="2"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J100" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K100" s="2"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101" s="2" t="s">
         <v>276</v>
       </c>
@@ -5110,18 +5504,21 @@
       <c r="F101" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="G101" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H101" s="2">
+      <c r="G101" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I101" s="2">
         <v>0.94</v>
       </c>
-      <c r="I101" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J101" s="2"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J101" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K101" s="2"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102" s="2" t="s">
         <v>276</v>
       </c>
@@ -5140,18 +5537,21 @@
       <c r="F102" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G102" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="2">
+      <c r="G102" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I102" s="2">
         <v>1092</v>
       </c>
-      <c r="I102" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J102" s="2"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J102" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K102" s="2"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103" s="2" t="s">
         <v>276</v>
       </c>
@@ -5170,18 +5570,21 @@
       <c r="F103" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G103" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H103" s="2">
+      <c r="G103" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I103" s="2">
         <v>24.18</v>
       </c>
-      <c r="I103" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J103" s="2"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J103" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K103" s="2"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104" s="2" t="s">
         <v>276</v>
       </c>
@@ -5200,18 +5603,21 @@
       <c r="F104" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G104" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H104" s="2">
+      <c r="G104" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I104" s="2">
         <v>0.75</v>
       </c>
-      <c r="I104" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J104" s="2"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J104" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K104" s="2"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105" s="2" t="s">
         <v>435</v>
       </c>
@@ -5231,17 +5637,20 @@
         <v>355</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="2">
+        <v>577</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I105" s="2">
         <v>9691</v>
       </c>
-      <c r="I105" s="2" t="s">
+      <c r="J105" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="J105" s="2"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K105" s="2"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106" s="2" t="s">
         <v>435</v>
       </c>
@@ -5261,17 +5670,20 @@
         <v>358</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H106" s="2">
+        <v>578</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I106" s="2">
         <v>54200</v>
       </c>
-      <c r="I106" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J106" s="2"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J106" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K106" s="2"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A107" s="2" t="s">
         <v>435</v>
       </c>
@@ -5291,17 +5703,20 @@
         <v>358</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H107" s="2">
+        <v>578</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I107" s="2">
         <v>37500</v>
       </c>
-      <c r="I107" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J107" s="2"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J107" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K107" s="2"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108" s="2" t="s">
         <v>435</v>
       </c>
@@ -5321,17 +5736,20 @@
         <v>358</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H108" s="2">
+        <v>578</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I108" s="2">
         <v>16900</v>
       </c>
-      <c r="I108" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J108" s="2"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J108" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K108" s="2"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109" s="2" t="s">
         <v>435</v>
       </c>
@@ -5351,17 +5769,20 @@
         <v>358</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H109" s="2">
+        <v>578</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I109" s="2">
         <v>9400</v>
       </c>
-      <c r="I109" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J109" s="2"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J109" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K109" s="2"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110" s="2" t="s">
         <v>435</v>
       </c>
@@ -5381,17 +5802,20 @@
         <v>358</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H110" s="2">
+        <v>578</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I110" s="2">
         <v>43300</v>
       </c>
-      <c r="I110" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J110" s="2"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J110" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K110" s="2"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111" s="2" t="s">
         <v>435</v>
       </c>
@@ -5411,17 +5835,20 @@
         <v>358</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H111" s="2">
+        <v>578</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I111" s="2">
         <v>1600</v>
       </c>
-      <c r="I111" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J111" s="2"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J111" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K111" s="2"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112" s="2" t="s">
         <v>435</v>
       </c>
@@ -5441,17 +5868,20 @@
         <v>358</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H112" s="2">
+        <v>578</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I112" s="2">
         <v>5600</v>
       </c>
-      <c r="I112" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J112" s="2"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J112" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K112" s="2"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A113" s="2" t="s">
         <v>435</v>
       </c>
@@ -5471,17 +5901,20 @@
         <v>358</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H113" s="2">
+        <v>578</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I113" s="2">
         <v>49000</v>
       </c>
-      <c r="I113" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J113" s="2"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J113" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K113" s="2"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A114" s="2" t="s">
         <v>435</v>
       </c>
@@ -5501,17 +5934,20 @@
         <v>358</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H114" s="2">
+        <v>578</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I114" s="2">
         <v>592</v>
       </c>
-      <c r="I114" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J114" s="2"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J114" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K114" s="2"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A115" s="2" t="s">
         <v>435</v>
       </c>
@@ -5531,17 +5967,20 @@
         <v>358</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H115" s="2">
+        <v>578</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I115" s="2">
         <v>417</v>
       </c>
-      <c r="I115" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J115" s="2"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J115" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K115" s="2"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A116" s="2" t="s">
         <v>435</v>
       </c>
@@ -5561,17 +6000,20 @@
         <v>358</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H116" s="2">
+        <v>578</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I116" s="2">
         <v>175</v>
       </c>
-      <c r="I116" s="2" t="s">
+      <c r="J116" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="J116" s="2"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K116" s="2"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A117" s="2" t="s">
         <v>435</v>
       </c>
@@ -5591,17 +6033,20 @@
         <v>358</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H117" s="2">
+        <v>578</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I117" s="2">
         <v>20</v>
       </c>
-      <c r="I117" s="2" t="s">
+      <c r="J117" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="J117" s="2"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K117" s="2"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A118" s="2" t="s">
         <v>435</v>
       </c>
@@ -5621,17 +6066,20 @@
         <v>358</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H118" s="2">
+        <v>578</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I118" s="2">
         <v>29</v>
       </c>
-      <c r="I118" s="2" t="s">
+      <c r="J118" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="J118" s="2"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K118" s="2"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A119" s="2" t="s">
         <v>435</v>
       </c>
@@ -5651,17 +6099,20 @@
         <v>358</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H119" s="2">
+        <v>578</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I119" s="2">
         <v>48</v>
       </c>
-      <c r="I119" s="2" t="s">
+      <c r="J119" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="J119" s="2"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K119" s="2"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A120" s="2" t="s">
         <v>435</v>
       </c>
@@ -5681,17 +6132,20 @@
         <v>358</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H120" s="2">
+        <v>578</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I120" s="2">
         <v>32</v>
       </c>
-      <c r="I120" s="2" t="s">
+      <c r="J120" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="J120" s="2"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K120" s="2"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A121" s="2" t="s">
         <v>435</v>
       </c>
@@ -5711,17 +6165,20 @@
         <v>358</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H121" s="2">
+        <v>578</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I121" s="2">
         <v>40</v>
       </c>
-      <c r="I121" s="2" t="s">
+      <c r="J121" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="J121" s="2"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K121" s="2"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A122" s="2" t="s">
         <v>435</v>
       </c>
@@ -5741,17 +6198,20 @@
         <v>358</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H122" s="2">
+        <v>578</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I122" s="2">
         <v>515</v>
       </c>
-      <c r="I122" s="2" t="s">
+      <c r="J122" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="J122" s="2"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K122" s="2"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A123" s="2" t="s">
         <v>435</v>
       </c>
@@ -5771,17 +6231,20 @@
         <v>358</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H123" s="2">
+        <v>578</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I123" s="2">
         <v>17</v>
       </c>
-      <c r="I123" s="2" t="s">
+      <c r="J123" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="J123" s="2"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K123" s="2"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A124" s="2" t="s">
         <v>435</v>
       </c>
@@ -5801,17 +6264,20 @@
         <v>358</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H124" s="2">
+        <v>578</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I124" s="2">
         <v>644</v>
       </c>
-      <c r="I124" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J124" s="2"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J124" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K124" s="2"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A125" s="2" t="s">
         <v>435</v>
       </c>
@@ -5831,17 +6297,20 @@
         <v>358</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H125" s="2">
+        <v>578</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I125" s="2">
         <v>438</v>
       </c>
-      <c r="I125" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J125" s="2"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J125" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K125" s="2"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A126" s="2" t="s">
         <v>435</v>
       </c>
@@ -5861,17 +6330,20 @@
         <v>358</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H126" s="2">
+        <v>578</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I126" s="2">
         <v>206</v>
       </c>
-      <c r="I126" s="2" t="s">
+      <c r="J126" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="J126" s="2"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K126" s="2"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A127" s="2" t="s">
         <v>435</v>
       </c>
@@ -5891,17 +6363,20 @@
         <v>358</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H127" s="2">
+        <v>578</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I127" s="2">
         <v>27</v>
       </c>
-      <c r="I127" s="2" t="s">
+      <c r="J127" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="J127" s="2"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K127" s="2"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A128" s="2" t="s">
         <v>435</v>
       </c>
@@ -5921,17 +6396,20 @@
         <v>358</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H128" s="2">
+        <v>578</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I128" s="2">
         <v>25</v>
       </c>
-      <c r="I128" s="2" t="s">
+      <c r="J128" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="J128" s="2"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K128" s="2"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A129" s="2" t="s">
         <v>435</v>
       </c>
@@ -5951,17 +6429,20 @@
         <v>358</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H129" s="2">
+        <v>578</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I129" s="2">
         <v>38</v>
       </c>
-      <c r="I129" s="2" t="s">
+      <c r="J129" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="J129" s="2"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K129" s="2"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A130" s="2" t="s">
         <v>435</v>
       </c>
@@ -5981,17 +6462,20 @@
         <v>358</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H130" s="2">
+        <v>578</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I130" s="2">
         <v>41</v>
       </c>
-      <c r="I130" s="2" t="s">
+      <c r="J130" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="J130" s="2"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K130" s="2"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A131" s="2" t="s">
         <v>435</v>
       </c>
@@ -6011,17 +6495,20 @@
         <v>358</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H131" s="2">
+        <v>578</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I131" s="2">
         <v>34</v>
       </c>
-      <c r="I131" s="2" t="s">
+      <c r="J131" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="J131" s="2"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K131" s="2"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A132" s="2" t="s">
         <v>435</v>
       </c>
@@ -6041,17 +6528,20 @@
         <v>358</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H132" s="2">
+        <v>578</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I132" s="2">
         <v>546</v>
       </c>
-      <c r="I132" s="2" t="s">
+      <c r="J132" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="J132" s="2"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K132" s="2"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A133" s="2" t="s">
         <v>435</v>
       </c>
@@ -6071,17 +6561,20 @@
         <v>358</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H133" s="2">
+        <v>578</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I133" s="2">
         <v>34</v>
       </c>
-      <c r="I133" s="2" t="s">
+      <c r="J133" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="J133" s="2"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K133" s="2"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A134" s="2" t="s">
         <v>435</v>
       </c>
@@ -6101,17 +6594,20 @@
         <v>358</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H134" s="2">
+        <v>578</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I134" s="2">
         <v>651</v>
       </c>
-      <c r="I134" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J134" s="2"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J134" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K134" s="2"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A135" s="2" t="s">
         <v>435</v>
       </c>
@@ -6131,17 +6627,20 @@
         <v>358</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H135" s="2">
+        <v>578</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I135" s="2">
         <v>462</v>
       </c>
-      <c r="I135" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J135" s="2"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J135" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K135" s="2"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A136" s="2" t="s">
         <v>435</v>
       </c>
@@ -6161,17 +6660,20 @@
         <v>358</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H136" s="2">
+        <v>578</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I136" s="2">
         <v>189</v>
       </c>
-      <c r="I136" s="2" t="s">
+      <c r="J136" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="J136" s="2"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K136" s="2"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A137" s="2" t="s">
         <v>435</v>
       </c>
@@ -6191,17 +6693,20 @@
         <v>358</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H137" s="2">
+        <v>578</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I137" s="2">
         <v>21</v>
       </c>
-      <c r="I137" s="2" t="s">
+      <c r="J137" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="J137" s="2"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K137" s="2"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A138" s="2" t="s">
         <v>435</v>
       </c>
@@ -6221,17 +6726,20 @@
         <v>358</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H138" s="2">
+        <v>578</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I138" s="2">
         <v>27</v>
       </c>
-      <c r="I138" s="2" t="s">
+      <c r="J138" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="J138" s="2"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K138" s="2"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A139" s="2" t="s">
         <v>435</v>
       </c>
@@ -6251,17 +6759,20 @@
         <v>358</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H139" s="2">
+        <v>578</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I139" s="2">
         <v>48</v>
       </c>
-      <c r="I139" s="2" t="s">
+      <c r="J139" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="J139" s="2"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K139" s="2"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A140" s="2" t="s">
         <v>435</v>
       </c>
@@ -6281,17 +6792,20 @@
         <v>358</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H140" s="2">
+        <v>578</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I140" s="2">
         <v>37</v>
       </c>
-      <c r="I140" s="2" t="s">
+      <c r="J140" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="J140" s="2"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K140" s="2"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A141" s="2" t="s">
         <v>435</v>
       </c>
@@ -6311,17 +6825,20 @@
         <v>358</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H141" s="2">
+        <v>578</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I141" s="2">
         <v>25</v>
       </c>
-      <c r="I141" s="2" t="s">
+      <c r="J141" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="J141" s="2"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K141" s="2"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A142" s="2" t="s">
         <v>435</v>
       </c>
@@ -6341,17 +6858,20 @@
         <v>358</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H142" s="2">
+        <v>578</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I142" s="2">
         <v>568</v>
       </c>
-      <c r="I142" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J142" s="2"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J142" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K142" s="2"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A143" s="2" t="s">
         <v>435</v>
       </c>
@@ -6371,17 +6891,20 @@
         <v>358</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H143" s="2">
+        <v>578</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I143" s="2">
         <v>46</v>
       </c>
-      <c r="I143" s="2" t="s">
+      <c r="J143" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="J143" s="2"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K143" s="2"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A144" s="2" t="s">
         <v>435</v>
       </c>
@@ -6401,17 +6924,20 @@
         <v>358</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H144" s="2">
+        <v>578</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I144" s="2">
         <v>517</v>
       </c>
-      <c r="I144" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J144" s="2"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J144" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K144" s="2"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A145" s="2" t="s">
         <v>435</v>
       </c>
@@ -6431,17 +6957,20 @@
         <v>358</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H145" s="2">
+        <v>578</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I145" s="2">
         <v>354</v>
       </c>
-      <c r="I145" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J145" s="2"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J145" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K145" s="2"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A146" s="2" t="s">
         <v>435</v>
       </c>
@@ -6461,17 +6990,20 @@
         <v>358</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H146" s="2">
+        <v>578</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I146" s="2">
         <v>163</v>
       </c>
-      <c r="I146" s="2" t="s">
+      <c r="J146" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="J146" s="2"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K146" s="2"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A147" s="2" t="s">
         <v>435</v>
       </c>
@@ -6491,17 +7023,20 @@
         <v>358</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H147" s="2">
+        <v>578</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I147" s="2">
         <v>24</v>
       </c>
-      <c r="I147" s="2" t="s">
+      <c r="J147" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="J147" s="2"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K147" s="2"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A148" s="2" t="s">
         <v>435</v>
       </c>
@@ -6521,17 +7056,20 @@
         <v>358</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H148" s="2">
+        <v>578</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I148" s="2">
         <v>24</v>
       </c>
-      <c r="I148" s="2" t="s">
+      <c r="J148" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="J148" s="2"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K148" s="2"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A149" s="2" t="s">
         <v>435</v>
       </c>
@@ -6551,17 +7089,20 @@
         <v>358</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H149" s="2">
+        <v>578</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I149" s="2">
         <v>38</v>
       </c>
-      <c r="I149" s="2" t="s">
+      <c r="J149" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="J149" s="2"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K149" s="2"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A150" s="2" t="s">
         <v>435</v>
       </c>
@@ -6581,17 +7122,20 @@
         <v>358</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H150" s="2">
+        <v>578</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I150" s="2">
         <v>27</v>
       </c>
-      <c r="I150" s="2" t="s">
+      <c r="J150" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="J150" s="2"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K150" s="2"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A151" s="2" t="s">
         <v>435</v>
       </c>
@@ -6611,17 +7155,20 @@
         <v>358</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H151" s="2">
+        <v>578</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I151" s="2">
         <v>17</v>
       </c>
-      <c r="I151" s="2" t="s">
+      <c r="J151" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="J151" s="2"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K151" s="2"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A152" s="2" t="s">
         <v>435</v>
       </c>
@@ -6641,17 +7188,20 @@
         <v>358</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H152" s="2">
+        <v>578</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I152" s="2">
         <v>453</v>
       </c>
-      <c r="I152" s="2" t="s">
+      <c r="J152" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J152" s="2"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K152" s="2"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A153" s="2" t="s">
         <v>435</v>
       </c>
@@ -6671,17 +7221,20 @@
         <v>358</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H153" s="2">
+        <v>578</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I153" s="2">
         <v>26</v>
       </c>
-      <c r="I153" s="2" t="s">
+      <c r="J153" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="J153" s="2"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K153" s="2"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A154" s="2" t="s">
         <v>435</v>
       </c>
@@ -6701,17 +7254,20 @@
         <v>358</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H154" s="2">
+        <v>578</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I154" s="2">
         <v>528</v>
       </c>
-      <c r="I154" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J154" s="2"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J154" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K154" s="2"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A155" s="2" t="s">
         <v>435</v>
       </c>
@@ -6731,17 +7287,20 @@
         <v>358</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H155" s="2">
+        <v>578</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I155" s="2">
         <v>375</v>
       </c>
-      <c r="I155" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J155" s="2"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J155" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K155" s="2"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A156" s="2" t="s">
         <v>435</v>
       </c>
@@ -6761,17 +7320,20 @@
         <v>358</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H156" s="2">
+        <v>578</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I156" s="2">
         <v>153</v>
       </c>
-      <c r="I156" s="2" t="s">
+      <c r="J156" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="J156" s="2"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K156" s="2"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A157" s="2" t="s">
         <v>435</v>
       </c>
@@ -6791,17 +7353,20 @@
         <v>358</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H157" s="2">
+        <v>578</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I157" s="2">
         <v>26</v>
       </c>
-      <c r="I157" s="2" t="s">
+      <c r="J157" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="J157" s="2"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K157" s="2"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A158" s="2" t="s">
         <v>435</v>
       </c>
@@ -6821,17 +7386,20 @@
         <v>358</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H158" s="2">
+        <v>578</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I158" s="2">
         <v>17</v>
       </c>
-      <c r="I158" s="2" t="s">
+      <c r="J158" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="J158" s="2"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K158" s="2"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A159" s="2" t="s">
         <v>435</v>
       </c>
@@ -6851,17 +7419,20 @@
         <v>358</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H159" s="2">
+        <v>578</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I159" s="2">
         <v>39</v>
       </c>
-      <c r="I159" s="2" t="s">
+      <c r="J159" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="J159" s="2"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K159" s="2"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A160" s="2" t="s">
         <v>435</v>
       </c>
@@ -6881,17 +7452,20 @@
         <v>358</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H160" s="2">
+        <v>578</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I160" s="2">
         <v>35</v>
       </c>
-      <c r="I160" s="2" t="s">
+      <c r="J160" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="J160" s="2"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K160" s="2"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A161" s="2" t="s">
         <v>435</v>
       </c>
@@ -6911,17 +7485,20 @@
         <v>358</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H161" s="2">
+        <v>578</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I161" s="2">
         <v>17</v>
       </c>
-      <c r="I161" s="2" t="s">
+      <c r="J161" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="J161" s="2"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K161" s="2"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A162" s="2" t="s">
         <v>435</v>
       </c>
@@ -6941,17 +7518,20 @@
         <v>358</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H162" s="2">
+        <v>578</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I162" s="2">
         <v>472</v>
       </c>
-      <c r="I162" s="2" t="s">
+      <c r="J162" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="J162" s="2"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K162" s="2"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A163" s="2" t="s">
         <v>435</v>
       </c>
@@ -6971,17 +7551,20 @@
         <v>358</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H163" s="2">
+        <v>578</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I163" s="2">
         <v>12</v>
       </c>
-      <c r="I163" s="2" t="s">
+      <c r="J163" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="J163" s="2"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K163" s="2"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A164" s="2" t="s">
         <v>435</v>
       </c>
@@ -7000,18 +7583,19 @@
       <c r="F164" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G164" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H164" s="2">
+      <c r="G164" s="2"/>
+      <c r="H164" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I164" s="2">
         <v>586.4</v>
       </c>
-      <c r="I164" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J164" s="2"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J164" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K164" s="2"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A165" s="2" t="s">
         <v>435</v>
       </c>
@@ -7030,18 +7614,19 @@
       <c r="F165" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G165" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H165" s="2">
+      <c r="G165" s="2"/>
+      <c r="H165" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I165" s="2">
         <v>409.2</v>
       </c>
-      <c r="I165" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J165" s="2"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J165" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K165" s="2"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A166" s="2" t="s">
         <v>435</v>
       </c>
@@ -7060,18 +7645,19 @@
       <c r="F166" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G166" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H166" s="2">
+      <c r="G166" s="2"/>
+      <c r="H166" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I166" s="2">
         <v>177.2</v>
       </c>
-      <c r="I166" s="2" t="s">
+      <c r="J166" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J166" s="2"/>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K166" s="2"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A167" s="2" t="s">
         <v>435</v>
       </c>
@@ -7090,18 +7676,19 @@
       <c r="F167" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G167" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H167" s="2">
+      <c r="G167" s="2"/>
+      <c r="H167" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I167" s="2">
         <v>23.6</v>
       </c>
-      <c r="I167" s="2" t="s">
+      <c r="J167" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="J167" s="2"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K167" s="2"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A168" s="2" t="s">
         <v>435</v>
       </c>
@@ -7120,18 +7707,19 @@
       <c r="F168" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G168" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H168" s="2">
+      <c r="G168" s="2"/>
+      <c r="H168" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I168" s="2">
         <v>24.4</v>
       </c>
-      <c r="I168" s="2" t="s">
+      <c r="J168" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="J168" s="2"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K168" s="2"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A169" s="2" t="s">
         <v>435</v>
       </c>
@@ -7150,18 +7738,19 @@
       <c r="F169" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G169" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H169" s="2">
+      <c r="G169" s="2"/>
+      <c r="H169" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I169" s="2">
         <v>42.2</v>
       </c>
-      <c r="I169" s="2" t="s">
+      <c r="J169" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="J169" s="2"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K169" s="2"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A170" s="2" t="s">
         <v>435</v>
       </c>
@@ -7180,18 +7769,19 @@
       <c r="F170" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G170" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H170" s="2">
+      <c r="G170" s="2"/>
+      <c r="H170" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I170" s="2">
         <v>34.4</v>
       </c>
-      <c r="I170" s="2" t="s">
+      <c r="J170" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="J170" s="2"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K170" s="2"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A171" s="2" t="s">
         <v>435</v>
       </c>
@@ -7210,18 +7800,19 @@
       <c r="F171" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G171" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H171" s="2">
+      <c r="G171" s="2"/>
+      <c r="H171" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I171" s="2">
         <v>26.6</v>
       </c>
-      <c r="I171" s="2" t="s">
+      <c r="J171" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="J171" s="2"/>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K171" s="2"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A172" s="2" t="s">
         <v>435</v>
       </c>
@@ -7240,18 +7831,19 @@
       <c r="F172" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G172" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H172" s="2">
+      <c r="G172" s="2"/>
+      <c r="H172" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I172" s="2">
         <v>510.8</v>
       </c>
-      <c r="I172" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J172" s="2"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J172" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K172" s="2"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A173" s="2" t="s">
         <v>435</v>
       </c>
@@ -7270,18 +7862,19 @@
       <c r="F173" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G173" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H173" s="2">
+      <c r="G173" s="2"/>
+      <c r="H173" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I173" s="2">
         <v>27</v>
       </c>
-      <c r="I173" s="2" t="s">
+      <c r="J173" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="J173" s="2"/>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K173" s="2"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A174" s="2" t="s">
         <v>276</v>
       </c>
@@ -7301,17 +7894,20 @@
         <v>409</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H174" s="2">
+        <v>576</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I174" s="2">
         <v>5904</v>
       </c>
-      <c r="I174" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J174" s="2"/>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J174" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K174" s="2"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A175" s="2" t="s">
         <v>276</v>
       </c>
@@ -7331,17 +7927,20 @@
         <v>409</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H175" s="2">
+        <v>576</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I175" s="2">
         <v>9499</v>
       </c>
-      <c r="I175" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J175" s="2"/>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J175" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K175" s="2"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A176" s="2" t="s">
         <v>435</v>
       </c>
@@ -7360,18 +7959,18 @@
       <c r="F176" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="G176" s="2" t="s">
+      <c r="H176" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="H176" s="2">
+      <c r="I176" s="2">
         <v>39.5</v>
       </c>
-      <c r="I176" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J176" s="2"/>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J176" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K176" s="2"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A177" s="2" t="s">
         <v>435</v>
       </c>
@@ -7390,18 +7989,18 @@
       <c r="F177" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="G177" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H177" s="2">
+      <c r="H177" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I177" s="2">
         <v>4.1500000000000004</v>
       </c>
-      <c r="I177" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J177" s="2"/>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J177" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K177" s="2"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A178" s="2" t="s">
         <v>435</v>
       </c>
@@ -7421,17 +8020,20 @@
         <v>552</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H178" s="2">
+        <v>579</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I178" s="2">
         <v>13.3</v>
       </c>
-      <c r="I178" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J178" s="2"/>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J178" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K178" s="2"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A179" s="2" t="s">
         <v>435</v>
       </c>
@@ -7451,17 +8053,20 @@
         <v>552</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H179" s="2">
+        <v>579</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I179" s="2">
         <v>14.7</v>
       </c>
-      <c r="I179" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J179" s="2"/>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J179" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K179" s="2"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A180" s="2" t="s">
         <v>435</v>
       </c>
@@ -7481,17 +8086,20 @@
         <v>552</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H180" s="2">
+        <v>579</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I180" s="2">
         <v>14.5</v>
       </c>
-      <c r="I180" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J180" s="2"/>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J180" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K180" s="2"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A181" s="2" t="s">
         <v>435</v>
       </c>
@@ -7511,17 +8119,20 @@
         <v>552</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H181" s="2">
+        <v>579</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I181" s="2">
         <v>15.2</v>
       </c>
-      <c r="I181" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J181" s="2"/>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J181" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K181" s="2"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A182" s="2" t="s">
         <v>435</v>
       </c>
@@ -7541,17 +8152,20 @@
         <v>552</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H182" s="2">
+        <v>579</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I182" s="2">
         <v>35.4</v>
       </c>
-      <c r="I182" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J182" s="2"/>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J182" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K182" s="2"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A183" s="2" t="s">
         <v>435</v>
       </c>
@@ -7571,17 +8185,20 @@
         <v>552</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H183" s="2">
+        <v>579</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I183" s="2">
         <v>15.8</v>
       </c>
-      <c r="I183" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J183" s="2"/>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J183" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K183" s="2"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A184" s="2" t="s">
         <v>435</v>
       </c>
@@ -7600,18 +8217,19 @@
       <c r="F184" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="G184" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H184" s="2">
+      <c r="G184" s="2"/>
+      <c r="H184" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I184" s="2">
         <v>22</v>
       </c>
-      <c r="I184" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J184" s="2"/>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J184" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K184" s="2"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A185" s="2" t="s">
         <v>435</v>
       </c>
@@ -7630,18 +8248,19 @@
       <c r="F185" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="G185" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H185" s="2">
+      <c r="G185" s="2"/>
+      <c r="H185" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I185" s="2">
         <v>20.58</v>
       </c>
-      <c r="I185" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J185" s="2"/>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J185" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K185" s="2"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A186" s="2" t="s">
         <v>430</v>
       </c>
@@ -7661,17 +8280,20 @@
         <v>428</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H186" s="2">
+        <v>580</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I186" s="2">
         <v>1</v>
       </c>
-      <c r="I186" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J186" s="2"/>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J186" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K186" s="2"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A187" s="2" t="s">
         <v>430</v>
       </c>
@@ -7691,17 +8313,20 @@
         <v>428</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H187" s="2">
+        <v>580</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I187" s="2">
         <v>1</v>
       </c>
-      <c r="I187" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J187" s="2"/>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J187" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K187" s="2"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A188" s="2" t="s">
         <v>430</v>
       </c>
@@ -7721,17 +8346,20 @@
         <v>428</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H188" s="2">
+        <v>580</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I188" s="2">
         <v>1</v>
       </c>
-      <c r="I188" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J188" s="2"/>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J188" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K188" s="2"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A189" s="2" t="s">
         <v>430</v>
       </c>
@@ -7751,17 +8379,20 @@
         <v>428</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H189" s="2">
+        <v>580</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I189" s="2">
         <v>0</v>
       </c>
-      <c r="I189" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J189" s="2"/>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J189" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K189" s="2"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A190" s="2" t="s">
         <v>430</v>
       </c>
@@ -7781,17 +8412,20 @@
         <v>428</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H190" s="2">
+        <v>580</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I190" s="2">
         <v>1</v>
       </c>
-      <c r="I190" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J190" s="2"/>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J190" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K190" s="2"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A191" s="2" t="s">
         <v>430</v>
       </c>
@@ -7811,17 +8445,20 @@
         <v>428</v>
       </c>
       <c r="G191" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="H191" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H191" s="3">
+      <c r="I191" s="3">
         <v>39285</v>
       </c>
-      <c r="I191" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J191" s="2"/>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J191" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K191" s="2"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A192" s="2" t="s">
         <v>430</v>
       </c>
@@ -7841,17 +8478,20 @@
         <v>428</v>
       </c>
       <c r="G192" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="H192" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H192" s="3">
+      <c r="I192" s="3">
         <v>40756</v>
       </c>
-      <c r="I192" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J192" s="2"/>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J192" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K192" s="2"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A193" s="2" t="s">
         <v>430</v>
       </c>
@@ -7871,17 +8511,20 @@
         <v>428</v>
       </c>
       <c r="G193" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="H193" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H193" s="3">
+      <c r="I193" s="3">
         <v>40909</v>
       </c>
-      <c r="I193" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J193" s="2"/>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J193" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K193" s="2"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A194" s="2" t="s">
         <v>430</v>
       </c>
@@ -7901,17 +8544,20 @@
         <v>428</v>
       </c>
       <c r="G194" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="H194" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H194" s="3">
+      <c r="I194" s="3">
         <v>41821</v>
       </c>
-      <c r="I194" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J194" s="2"/>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J194" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K194" s="2"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A195" s="2" t="s">
         <v>430</v>
       </c>
@@ -7931,17 +8577,20 @@
         <v>428</v>
       </c>
       <c r="G195" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="H195" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H195" s="3">
+      <c r="I195" s="3">
         <v>39285</v>
       </c>
-      <c r="I195" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J195" s="2"/>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J195" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K195" s="2"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A196" s="2" t="s">
         <v>430</v>
       </c>
@@ -7961,17 +8610,20 @@
         <v>428</v>
       </c>
       <c r="G196" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="H196" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H196" s="3">
+      <c r="I196" s="3">
         <v>40339</v>
       </c>
-      <c r="I196" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J196" s="2"/>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J196" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K196" s="2"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A197" s="2" t="s">
         <v>430</v>
       </c>
@@ -7991,17 +8643,20 @@
         <v>428</v>
       </c>
       <c r="G197" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="H197" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H197" s="3">
+      <c r="I197" s="3">
         <v>42278</v>
       </c>
-      <c r="I197" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J197" s="2"/>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J197" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K197" s="2"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A198" s="2" t="s">
         <v>430</v>
       </c>
@@ -8021,17 +8676,20 @@
         <v>428</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H198" s="2">
+        <v>581</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I198" s="2">
         <v>1</v>
       </c>
-      <c r="I198" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J198" s="2"/>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J198" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K198" s="2"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A199" s="2" t="s">
         <v>430</v>
       </c>
@@ -8051,17 +8709,20 @@
         <v>428</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H199" s="2">
+        <v>581</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I199" s="2">
         <v>0</v>
       </c>
-      <c r="I199" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J199" s="2"/>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J199" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K199" s="2"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A200" s="2" t="s">
         <v>430</v>
       </c>
@@ -8081,17 +8742,20 @@
         <v>428</v>
       </c>
       <c r="G200" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="H200" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H200" s="3">
+      <c r="I200" s="3">
         <v>40360</v>
       </c>
-      <c r="I200" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J200" s="2"/>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J200" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K200" s="2"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A201" s="2" t="s">
         <v>430</v>
       </c>
@@ -8111,17 +8775,20 @@
         <v>428</v>
       </c>
       <c r="G201" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="H201" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H201" s="3">
+      <c r="I201" s="3">
         <v>42217</v>
       </c>
-      <c r="I201" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J201" s="2"/>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J201" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K201" s="2"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A202" s="2" t="s">
         <v>430</v>
       </c>
@@ -8141,17 +8808,20 @@
         <v>428</v>
       </c>
       <c r="G202" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="H202" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H202" s="3">
+      <c r="I202" s="3">
         <v>41760</v>
       </c>
-      <c r="I202" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J202" s="2"/>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J202" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K202" s="2"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A203" s="2" t="s">
         <v>430</v>
       </c>
@@ -8171,17 +8841,20 @@
         <v>428</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H203" s="2">
+        <v>582</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I203" s="2">
         <v>1</v>
       </c>
-      <c r="I203" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J203" s="2"/>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J203" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K203" s="2"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A204" s="2" t="s">
         <v>430</v>
       </c>
@@ -8201,17 +8874,20 @@
         <v>428</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H204" s="2">
+        <v>582</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I204" s="2">
         <v>1</v>
       </c>
-      <c r="I204" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J204" s="2"/>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J204" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K204" s="2"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A205" s="2" t="s">
         <v>430</v>
       </c>
@@ -8231,17 +8907,20 @@
         <v>428</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H205" s="2">
+        <v>582</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I205" s="2">
         <v>0</v>
       </c>
-      <c r="I205" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J205" s="2"/>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J205" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K205" s="2"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A206" s="2" t="s">
         <v>430</v>
       </c>
@@ -8261,17 +8940,20 @@
         <v>452</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H206" s="2">
+        <v>583</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I206" s="2">
         <v>14959703300</v>
       </c>
-      <c r="I206" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J206" s="2"/>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J206" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K206" s="2"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A207" s="2" t="s">
         <v>430</v>
       </c>
@@ -8291,17 +8973,20 @@
         <v>453</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H207" s="2">
+        <v>584</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I207" s="2">
         <v>12037465400</v>
       </c>
-      <c r="I207" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J207" s="2"/>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J207" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K207" s="2"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A208" s="2" t="s">
         <v>430</v>
       </c>
@@ -8321,17 +9006,20 @@
         <v>453</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H208" s="2">
+        <v>584</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I208" s="2">
         <v>4610569600</v>
       </c>
-      <c r="I208" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J208" s="2"/>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J208" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K208" s="2"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A209" s="2" t="s">
         <v>430</v>
       </c>
@@ -8351,17 +9039,20 @@
         <v>453</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H209" s="2">
+        <v>584</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I209" s="2">
         <v>4349828600</v>
       </c>
-      <c r="I209" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J209" s="2"/>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J209" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K209" s="2"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A210" s="2" t="s">
         <v>430</v>
       </c>
@@ -8381,17 +9072,20 @@
         <v>453</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H210" s="2">
+        <v>584</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I210" s="2">
         <v>2902387900</v>
       </c>
-      <c r="I210" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J210" s="2"/>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J210" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K210" s="2"/>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A211" s="2" t="s">
         <v>430</v>
       </c>
@@ -8411,17 +9105,20 @@
         <v>453</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H211" s="2">
+        <v>584</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I211" s="2">
         <v>174679300</v>
       </c>
-      <c r="I211" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J211" s="2"/>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J211" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K211" s="2"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A212" s="2" t="s">
         <v>430</v>
       </c>
@@ -8441,17 +9138,20 @@
         <v>455</v>
       </c>
       <c r="G212" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="H212" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="H212" s="2">
+      <c r="I212" s="2">
         <v>1</v>
       </c>
-      <c r="I212" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J212" s="2"/>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J212" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K212" s="2"/>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A213" s="2" t="s">
         <v>430</v>
       </c>
@@ -8471,17 +9171,20 @@
         <v>455</v>
       </c>
       <c r="G213" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="H213" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="H213" s="2">
+      <c r="I213" s="2">
         <v>0</v>
       </c>
-      <c r="I213" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J213" s="2"/>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J213" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K213" s="2"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A214" s="2" t="s">
         <v>430</v>
       </c>
@@ -8501,17 +9204,20 @@
         <v>455</v>
       </c>
       <c r="G214" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="H214" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="H214" s="2">
+      <c r="I214" s="2">
         <v>0</v>
       </c>
-      <c r="I214" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J214" s="2"/>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J214" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K214" s="2"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A215" s="2" t="s">
         <v>430</v>
       </c>
@@ -8531,17 +9237,20 @@
         <v>455</v>
       </c>
       <c r="G215" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="H215" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="H215" s="2">
+      <c r="I215" s="2">
         <v>0</v>
       </c>
-      <c r="I215" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J215" s="2"/>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J215" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K215" s="2"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A216" s="2" t="s">
         <v>430</v>
       </c>
@@ -8561,17 +9270,20 @@
         <v>455</v>
       </c>
       <c r="G216" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="H216" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="H216" s="2">
+      <c r="I216" s="2">
         <v>0</v>
       </c>
-      <c r="I216" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J216" s="2"/>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J216" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K216" s="2"/>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A217" s="2" t="s">
         <v>430</v>
       </c>
@@ -8591,17 +9303,20 @@
         <v>455</v>
       </c>
       <c r="G217" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="H217" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="H217" s="2">
+      <c r="I217" s="2">
         <v>0</v>
       </c>
-      <c r="I217" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J217" s="2"/>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J217" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K217" s="2"/>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A218" s="2" t="s">
         <v>430</v>
       </c>
@@ -8621,17 +9336,20 @@
         <v>463</v>
       </c>
       <c r="G218" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="H218" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="H218" s="2">
+      <c r="I218" s="2">
         <v>1</v>
       </c>
-      <c r="I218" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J218" s="2"/>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J218" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K218" s="2"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A219" s="2" t="s">
         <v>430</v>
       </c>
@@ -8651,15 +9369,18 @@
         <v>477</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H219" s="2">
+        <v>587</v>
+      </c>
+      <c r="H219" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I219" s="2">
         <v>915105</v>
       </c>
-      <c r="I219" s="2"/>
       <c r="J219" s="2"/>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K219" s="2"/>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A220" s="2" t="s">
         <v>430</v>
       </c>
@@ -8679,17 +9400,20 @@
         <v>477</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H220" s="2">
+        <v>587</v>
+      </c>
+      <c r="H220" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I220" s="2">
         <v>305035</v>
       </c>
-      <c r="I220" s="2" t="s">
+      <c r="J220" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J220" s="2"/>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K220" s="2"/>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A221" s="2" t="s">
         <v>430</v>
       </c>
@@ -8709,17 +9433,20 @@
         <v>477</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H221" s="2">
+        <v>587</v>
+      </c>
+      <c r="H221" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I221" s="2">
         <v>915105</v>
       </c>
-      <c r="I221" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J221" s="2"/>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J221" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K221" s="2"/>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A222" s="2" t="s">
         <v>430</v>
       </c>
@@ -8739,17 +9466,20 @@
         <v>477</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H222" s="2">
+        <v>587</v>
+      </c>
+      <c r="H222" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I222" s="2">
         <v>1830210</v>
       </c>
-      <c r="I222" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J222" s="2"/>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J222" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K222" s="2"/>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A223" s="2" t="s">
         <v>430</v>
       </c>
@@ -8769,17 +9499,20 @@
         <v>477</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H223" s="2">
+        <v>587</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I223" s="2">
         <v>2196606</v>
       </c>
-      <c r="I223" s="2" t="s">
+      <c r="J223" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J223" s="2"/>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K223" s="2"/>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A224" s="2" t="s">
         <v>430</v>
       </c>
@@ -8799,17 +9532,20 @@
         <v>477</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H224" s="2">
+        <v>587</v>
+      </c>
+      <c r="H224" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I224" s="2">
         <v>3385247</v>
       </c>
-      <c r="I224" s="2" t="s">
+      <c r="J224" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J224" s="2"/>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K224" s="2"/>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A225" s="2" t="s">
         <v>430</v>
       </c>
@@ -8829,17 +9565,20 @@
         <v>477</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H225" s="2">
+        <v>587</v>
+      </c>
+      <c r="H225" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I225" s="2">
         <v>2196606</v>
       </c>
-      <c r="I225" s="2" t="s">
+      <c r="J225" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J225" s="2"/>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K225" s="2"/>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A226" s="2" t="s">
         <v>430</v>
       </c>
@@ -8859,17 +9598,20 @@
         <v>477</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H226" s="2">
+        <v>587</v>
+      </c>
+      <c r="H226" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I226" s="2">
         <v>4393212</v>
       </c>
-      <c r="I226" s="2" t="s">
+      <c r="J226" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J226" s="2"/>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K226" s="2"/>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A227" s="2" t="s">
         <v>430</v>
       </c>
@@ -8889,17 +9631,20 @@
         <v>477</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H227" s="2">
+        <v>587</v>
+      </c>
+      <c r="H227" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I227" s="2">
         <v>3111711</v>
       </c>
-      <c r="I227" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J227" s="2"/>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J227" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K227" s="2"/>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A228" s="2" t="s">
         <v>430</v>
       </c>
@@ -8919,17 +9664,20 @@
         <v>477</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H228" s="2">
+        <v>587</v>
+      </c>
+      <c r="H228" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I228" s="2">
         <v>3690282</v>
       </c>
-      <c r="I228" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J228" s="2"/>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J228" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K228" s="2"/>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A229" s="2" t="s">
         <v>430</v>
       </c>
@@ -8949,17 +9697,20 @@
         <v>477</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H229" s="2">
+        <v>587</v>
+      </c>
+      <c r="H229" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I229" s="2">
         <v>3111711</v>
       </c>
-      <c r="I229" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="J229" s="2"/>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J229" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K229" s="2"/>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A230" s="2" t="s">
         <v>430</v>
       </c>
@@ -8979,13 +9730,16 @@
         <v>477</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H230" s="2">
+        <v>587</v>
+      </c>
+      <c r="H230" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I230" s="2">
         <v>6223422</v>
       </c>
-      <c r="I230" s="2"/>
       <c r="J230" s="2"/>
+      <c r="K230" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
